--- a/notebooks/CRELD1/input/CRELD1_AVSD2_individuals.xlsx
+++ b/notebooks/CRELD1/input/CRELD1_AVSD2_individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/CRELD1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FCE01D-9D9E-914A-AA5B-835382D27704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D94488-2491-DE42-B030-0B3DDBC97A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="36540" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,7 +552,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
